--- a/Application/DriverReport Route - 1.xlsx
+++ b/Application/DriverReport Route - 1.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DriverReport 1" r:id="rId3" sheetId="1"/>
+    <sheet name="DriverReport Route - 1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Date Paid</t>
+    <t>DatePaid</t>
   </si>
   <si>
     <t>Mon</t>
@@ -235,16 +235,6 @@
   </si>
   <si>
     <t>Door Code: 9865</t>
-  </si>
-  <si>
-    <t>0354126589</t>
-  </si>
-  <si>
-    <t>58 VegiTable Avenue
-7856</t>
-  </si>
-  <si>
-    <t>Door Code" 4569</t>
   </si>
   <si>
     <t>Alan</t>
@@ -320,25 +310,25 @@
     <col min="1" max="1" width="9.42578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.30078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.359375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.2421875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="6.046875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="3.31640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="30.03125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.10546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -1706,13 +1696,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1733,42 +1723,42 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K41" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>79</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
